--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,152 +466,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Y0109 14:52</t>
+          <t>20240111 14:54</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>몽클레르 x 팜 엔젤스 람자우 쇼트 다운 자켓 블랙 - 23FW</t>
+          <t>크롬하츠 스텐실 후드 블랙</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2192700</v>
+        <v>721000</v>
       </c>
       <c r="D2" t="n">
-        <v>2380000</v>
+        <v>1200000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Moncler</t>
+          <t>Chrome Hearts</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>I2-09L-1A00019-M3566-999</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.kream.co.kr/products/197659</t>
+          <t>https://www.kream.co.kr/products/218164</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Y0109 14:52</t>
+          <t>20240111 14:54</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>몽클레르 x 팜 엔젤스 람자우 쇼트 다운 자켓 블랙 - 23FW</t>
+          <t>크롬하츠 스텐실 후드 블랙</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2192700</v>
+        <v>721000</v>
       </c>
       <c r="D3" t="n">
-        <v>1900000</v>
+        <v>724000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Moncler</t>
+          <t>Chrome Hearts</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>I2-09L-1A00019-M3566-999</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.kream.co.kr/products/197659</t>
+          <t>https://www.kream.co.kr/products/218164</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Y0109 14:52</t>
+          <t>20240111 14:54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>몽클레르 x 팜 엔젤스 람자우 쇼트 다운 자켓 블랙 - 23FW</t>
+          <t>크롬하츠 스텐실 후드 블랙</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2192700</v>
+        <v>721000</v>
       </c>
       <c r="D4" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Moncler</t>
+          <t>Chrome Hearts</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>I2-09L-1A00019-M3566-999</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.kream.co.kr/products/197659</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Y0109 14:52</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>몽클레르 x 팜 엔젤스 람자우 쇼트 다운 자켓 블랙 - 23FW</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2192700</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Moncler</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>I2-09L-1A00019-M3566-999</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.kream.co.kr/products/197659</t>
+          <t>https://www.kream.co.kr/products/218164</t>
         </is>
       </c>
     </row>
